--- a/varList.xlsx
+++ b/varList.xlsx
@@ -5,14 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sequences" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Import" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Import Settings" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Check" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -89,6 +87,12 @@
     <t xml:space="preserve">Path</t>
   </si>
   <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -98,25 +102,25 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kPa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm/mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition</t>
+    <t xml:space="preserve">Unit A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1:E3</t>
   </si>
 </sst>
 </file>
@@ -198,17 +202,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -230,7 +230,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -238,7 +238,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="43.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -320,14 +320,14 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -364,6 +364,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
@@ -408,18 +411,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,23 +433,47 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -462,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>9</v>
@@ -476,146 +503,81 @@
       <c r="I2" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
+      <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>9</v>
       </c>
     </row>
